--- a/ECAD/BDCMotorControlBoard/RP2040_ADC_filter.xlsx
+++ b/ECAD/BDCMotorControlBoard/RP2040_ADC_filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TelescopeMirrorTester\ECAD\BDCMotorControlBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33E9AC-6A64-44BE-BF36-072B9BC0706B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17500DE-E594-403D-8BD3-8FE81FC65AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D97B7CD-3DB0-481D-BB6C-B27239FEAF46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>maximum step size:</t>
   </si>
@@ -87,6 +87,39 @@
   </si>
   <si>
     <t>Rext:</t>
+  </si>
+  <si>
+    <t>Adc clock (MHz)</t>
+  </si>
+  <si>
+    <t>total ADC time</t>
+  </si>
+  <si>
+    <t>total ADC clock cycles</t>
+  </si>
+  <si>
+    <t>ADC conversion time (approx)</t>
+  </si>
+  <si>
+    <t>ADC acquisition time (approx)</t>
+  </si>
+  <si>
+    <t>ADC resolution</t>
+  </si>
+  <si>
+    <t>ADC Csh</t>
+  </si>
+  <si>
+    <t>ADC C parasitic</t>
+  </si>
+  <si>
+    <t>Rsh</t>
+  </si>
+  <si>
+    <t>Rsh (approx ???)</t>
+  </si>
+  <si>
+    <t>ADC acquisition time (approx ???)</t>
   </si>
 </sst>
 </file>
@@ -469,15 +502,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7562A43B-0ABB-4C42-B3A9-7AB4C9C28FBE}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -610,6 +644,102 @@
         <v>261.20144702590886</v>
       </c>
     </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <f>48000000</f>
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <f>(1/B10)*B11</f>
+        <v>2.0000000000000003E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <f>(1/B10)*B9</f>
+        <v>2.5000000000000004E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <f>(1/B10)*(B11-B9)</f>
+        <v>1.7500000000000002E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <f>0.000000000001</f>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <f>0.000000000004</f>
+        <v>3.9999999999999999E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <f>B14/(100*B15)</f>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <f>B17*(B15+B16)*100</f>
+        <v>4.9999999999999996E-5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{05C3BD43-8BC7-46E6-BCBA-E744D896A45D}"/>
